--- a/biology/Zoologie/Hamadryas_atlantis/Hamadryas_atlantis.xlsx
+++ b/biology/Zoologie/Hamadryas_atlantis/Hamadryas_atlantis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hamadryas atlantis est une  espèce de lépidoptères (papillons) de la famille des Nymphalidae et de la sous-famille des Biblidinae et du genre Hamadryas.
 </t>
@@ -511,14 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hamadryas atlantis a été décrite par Henry Walter Bates en 1864 sous le nom initial d' Ageronia atlantis[1].
-Sous-espèces
-Hamadryas atlantis atlantis
-Hamadryas atlantis lelaps (Godman &amp; Salvin, [1883])
-Nom vernaculaire
-Hamadryas atlantis se nomme Atlantis Cracker ou Black-patched Cracker en anglais[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hamadryas atlantis a été décrite par Henry Walter Bates en 1864 sous le nom initial d' Ageronia atlantis.
 </t>
         </is>
       </c>
@@ -544,10 +553,86 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Hamadryas atlantis atlantis
+Hamadryas atlantis lelaps (Godman &amp; Salvin, )</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hamadryas_atlantis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hamadryas_atlantis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hamadryas atlantis se nomme Atlantis Cracker ou Black-patched Cracker en anglais,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hamadryas_atlantis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hamadryas_atlantis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Hamadryas atlantis présente un dessus taché de gris de bleu de marron et de blanc.
 Le revers est blanc marqué de noir.
@@ -555,72 +640,181 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Hamadryas_atlantis</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hamadryas_atlantis</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hamadryas_atlantis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hamadryas_atlantis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au Mexique il vole en plusieurs générations de mai à novembre[2].
-Plantes hôtes
-Les plantes hôtes de sa chenille sont des Euphorbiaceae (Dalechampia)[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Mexique il vole en plusieurs générations de mai à novembre.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Hamadryas_atlantis</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hamadryas_atlantis</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hamadryas_atlantis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hamadryas_atlantis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Euphorbiaceae (Dalechampia).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hamadryas_atlantis</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hamadryas_atlantis</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hamadryas  atlantis est présent  au Guatemala, au Mexique et dans une station de l'extrême sud de l'Arizona[1],.
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hamadryas  atlantis est présent  au Guatemala, au Mexique et dans une station de l'extrême sud de l'Arizona,.
 Sur les autres projets Wikimedia :
 Hamadryas atlantis, sur Wikimedia CommonsHamadryas atlantis, sur Wikispecies
-Biotope
-Il réside dans des vallées plantées d'arbres[2].
-Protection
-Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hamadryas_atlantis</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hamadryas_atlantis</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans des vallées plantées d'arbres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Hamadryas_atlantis</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hamadryas_atlantis</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
